--- a/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_stop_6_rdtov16_202206.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_stop_6_rdtov16_202206.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\june\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685134CE-5C53-4B42-AA8C-9A15CC9A1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431EAA11-D625-43ED-8B4B-AD2AB6653B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="155">
   <si>
     <t>type</t>
   </si>
@@ -345,9 +345,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>ng_oncho_stop_6_rdtov16_202206</t>
-  </si>
-  <si>
     <t>CROSS RIVER</t>
   </si>
   <si>
@@ -432,12 +429,6 @@
     <t>ABARAGBA</t>
   </si>
   <si>
-    <t>BASSINGE</t>
-  </si>
-  <si>
-    <t>BAYALUGA</t>
-  </si>
-  <si>
     <t>BUANCHOR</t>
   </si>
   <si>
@@ -450,16 +441,52 @@
     <t>EDONDON</t>
   </si>
   <si>
-    <t>BEBI</t>
-  </si>
-  <si>
     <t>AGOI IBAMI</t>
   </si>
   <si>
-    <t>OTUKPO</t>
-  </si>
-  <si>
-    <t>(2023 June) - 6. RDT OV16 Form</t>
+    <t>(2023 June) - 6. RDT OV16 Form V2</t>
+  </si>
+  <si>
+    <t>ng_oncho_stop_6_rdtov16_202206_v2</t>
+  </si>
+  <si>
+    <t>ODUKPANI</t>
+  </si>
+  <si>
+    <t>ANINGEJE</t>
+  </si>
+  <si>
+    <t>IKOT OKPORA</t>
+  </si>
+  <si>
+    <t>ABIJANG</t>
+  </si>
+  <si>
+    <t>BASSENGE</t>
+  </si>
+  <si>
+    <t>BAYULUGA</t>
+  </si>
+  <si>
+    <t>BEBI (BEMIAH)</t>
+  </si>
+  <si>
+    <t>BIKAA</t>
+  </si>
+  <si>
+    <t>BIMAH</t>
+  </si>
+  <si>
+    <t>BETUKWEL</t>
+  </si>
+  <si>
+    <t>ATAN-OKONYONG</t>
+  </si>
+  <si>
+    <t>EZELENG (SHINGILE)</t>
+  </si>
+  <si>
+    <t>UTUKPO</t>
   </si>
 </sst>
 </file>
@@ -1331,11 +1358,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:A84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1571,10 +1598,10 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1582,13 +1609,13 @@
         <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1596,13 +1623,13 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1610,13 +1637,13 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1624,13 +1651,13 @@
         <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1638,13 +1665,13 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1652,13 +1679,13 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1666,13 +1693,13 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1680,13 +1707,13 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1694,13 +1721,13 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1708,13 +1735,13 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1722,13 +1749,13 @@
         <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1736,27 +1763,27 @@
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1764,13 +1791,13 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1778,13 +1805,13 @@
         <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1792,13 +1819,13 @@
         <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1806,13 +1833,13 @@
         <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1820,13 +1847,13 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1834,13 +1861,13 @@
         <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1848,13 +1875,13 @@
         <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1862,13 +1889,13 @@
         <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1876,13 +1903,13 @@
         <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1890,13 +1917,13 @@
         <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1904,13 +1931,13 @@
         <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1918,307 +1945,310 @@
         <v>70</v>
       </c>
       <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
         <v>133</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
         <v>133</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
         <v>136</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C61" t="s">
         <v>136</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E61" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
         <v>137</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C62" t="s">
         <v>137</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E62" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
         <v>138</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C63" t="s">
         <v>138</v>
       </c>
-      <c r="E53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="E63" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61">
-        <v>101</v>
-      </c>
-      <c r="C61">
-        <v>101</v>
-      </c>
-      <c r="F61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62">
-        <v>102</v>
-      </c>
-      <c r="C62">
-        <v>102</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63">
-        <v>103</v>
-      </c>
-      <c r="C63">
-        <v>103</v>
-      </c>
-      <c r="F63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64">
-        <v>104</v>
-      </c>
-      <c r="C64">
-        <v>104</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65">
-        <v>105</v>
-      </c>
-      <c r="C65">
-        <v>105</v>
-      </c>
-      <c r="F65" t="s">
-        <v>125</v>
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B66">
-        <v>106</v>
-      </c>
-      <c r="C66">
-        <v>106</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67">
-        <v>107</v>
-      </c>
-      <c r="C67">
-        <v>107</v>
-      </c>
-      <c r="F67" t="s">
-        <v>127</v>
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68">
-        <v>108</v>
-      </c>
-      <c r="C68">
-        <v>108</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B69">
-        <v>109</v>
-      </c>
-      <c r="C69">
-        <v>109</v>
-      </c>
-      <c r="F69" t="s">
-        <v>129</v>
-      </c>
+      <c r="A69" s="19"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="19" t="s">
         <v>102</v>
       </c>
       <c r="B70">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C70">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2226,13 +2256,13 @@
         <v>102</v>
       </c>
       <c r="B71">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C71">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F71" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2240,13 +2270,13 @@
         <v>102</v>
       </c>
       <c r="B72">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C72">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2254,13 +2284,13 @@
         <v>102</v>
       </c>
       <c r="B73">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C73">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F73" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2268,13 +2298,13 @@
         <v>102</v>
       </c>
       <c r="B74">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C74">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F74" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2282,13 +2312,13 @@
         <v>102</v>
       </c>
       <c r="B75">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C75">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2296,13 +2326,13 @@
         <v>102</v>
       </c>
       <c r="B76">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C76">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F76" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2310,13 +2340,13 @@
         <v>102</v>
       </c>
       <c r="B77">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C77">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F77" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2324,13 +2354,13 @@
         <v>102</v>
       </c>
       <c r="B78">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C78">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2338,13 +2368,13 @@
         <v>102</v>
       </c>
       <c r="B79">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C79">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F79" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2352,13 +2382,13 @@
         <v>102</v>
       </c>
       <c r="B80">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C80">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F80" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2366,13 +2396,13 @@
         <v>102</v>
       </c>
       <c r="B81">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C81">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F81" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2380,13 +2410,13 @@
         <v>102</v>
       </c>
       <c r="B82">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C82">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F82" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2394,13 +2424,13 @@
         <v>102</v>
       </c>
       <c r="B83">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C83">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F83" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2408,13 +2438,251 @@
         <v>102</v>
       </c>
       <c r="B84">
+        <v>115</v>
+      </c>
+      <c r="C84">
+        <v>115</v>
+      </c>
+      <c r="F84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85">
+        <v>116</v>
+      </c>
+      <c r="C85">
+        <v>116</v>
+      </c>
+      <c r="F85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86">
+        <v>117</v>
+      </c>
+      <c r="C86">
+        <v>117</v>
+      </c>
+      <c r="F86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87">
+        <v>118</v>
+      </c>
+      <c r="C87">
+        <v>118</v>
+      </c>
+      <c r="F87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88">
+        <v>119</v>
+      </c>
+      <c r="C88">
+        <v>119</v>
+      </c>
+      <c r="F88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89">
+        <v>120</v>
+      </c>
+      <c r="C89">
+        <v>120</v>
+      </c>
+      <c r="F89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90">
+        <v>121</v>
+      </c>
+      <c r="C90">
+        <v>121</v>
+      </c>
+      <c r="F90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>122</v>
+      </c>
+      <c r="C91">
+        <v>122</v>
+      </c>
+      <c r="F91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92">
+        <v>123</v>
+      </c>
+      <c r="C92">
+        <v>123</v>
+      </c>
+      <c r="F92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93">
         <v>124</v>
       </c>
-      <c r="C84">
+      <c r="C93">
         <v>124</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94">
+        <v>201</v>
+      </c>
+      <c r="C94">
+        <v>201</v>
+      </c>
+      <c r="F94" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95">
+        <v>202</v>
+      </c>
+      <c r="C95">
+        <v>202</v>
+      </c>
+      <c r="F95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>203</v>
+      </c>
+      <c r="C96">
+        <v>203</v>
+      </c>
+      <c r="F96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>204</v>
+      </c>
+      <c r="C97">
+        <v>204</v>
+      </c>
+      <c r="F97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>205</v>
+      </c>
+      <c r="C98">
+        <v>205</v>
+      </c>
+      <c r="F98" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>206</v>
+      </c>
+      <c r="C99">
+        <v>206</v>
+      </c>
+      <c r="F99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>207</v>
+      </c>
+      <c r="C100">
+        <v>207</v>
+      </c>
+      <c r="F100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>208</v>
+      </c>
+      <c r="C101">
+        <v>208</v>
+      </c>
+      <c r="F101" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2429,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2452,10 +2720,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
+        <v>140</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
